--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\c_packaging\package_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944172E0-DDFB-4365-B7F2-99736CAC2641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6F2F2-40A3-4EAF-9B20-228C44071CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -382,12 +382,6 @@
   </si>
   <si>
     <t>NIFTY HEALTHCARE</t>
-  </si>
-  <si>
-    <t>NIFTY50 &amp; SHORT DURATION DEBT - DYNAMIC P/B</t>
-  </si>
-  <si>
-    <t>NIFTY50 &amp; SHORT DURATION DEBT - DYNAMIC P/E</t>
   </si>
   <si>
     <t>NIFTY 50 FUTURES TR INDEX</t>
@@ -904,7 +898,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1016,7 +1010,7 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1030,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1044,7 +1038,7 @@
         <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1114,7 +1108,7 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1142,7 +1136,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1156,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1185,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1275,7 +1269,7 @@
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1289,7 +1283,7 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,7 +1339,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1359,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1401,7 +1395,7 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1429,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,7 +1486,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1534,7 +1528,7 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1576,7 +1570,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1660,7 +1654,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1674,7 +1668,7 @@
         <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1688,7 +1682,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1786,7 +1780,7 @@
         <v>1000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1800,7 +1794,7 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1814,7 +1808,7 @@
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1870,7 +1864,7 @@
         <v>1500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1898,7 +1892,7 @@
         <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1940,7 +1934,7 @@
         <v>1000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2035,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D7280-DA99-43BB-B8CC-2B757AFDF5E9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2059,7 +2053,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2073,7 +2067,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2087,7 +2081,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2143,7 +2137,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2199,7 +2193,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2255,7 +2249,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2283,7 +2277,7 @@
         <v>1000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2311,7 +2305,7 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2344,7 +2338,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4">
         <v>38443</v>
@@ -2353,12 +2347,12 @@
         <v>1000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4">
         <v>38443</v>
@@ -2367,12 +2361,12 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>99</v>
+      <c r="A24" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="B24" s="4">
         <v>38443</v>
@@ -2380,13 +2374,13 @@
       <c r="C24">
         <v>1000</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>99</v>
+      <c r="D24" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4">
         <v>38443</v>
@@ -2395,105 +2389,77 @@
         <v>1000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>106</v>
+      <c r="A26" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B26" s="4">
-        <v>38443</v>
+        <v>38778</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4">
-        <v>38443</v>
+        <v>39356</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4">
-        <v>38778</v>
+        <v>39814</v>
       </c>
       <c r="C28">
         <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4">
-        <v>39356</v>
+        <v>39814</v>
       </c>
       <c r="C29">
         <v>1000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="4">
-        <v>39814</v>
+        <v>40087</v>
       </c>
       <c r="C30">
         <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="4">
-        <v>39814</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="4">
-        <v>40087</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2506,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E6A19C-CCEA-4D9C-96EA-3039CDDFFAD1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2528,7 +2494,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2542,7 +2508,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2556,7 +2522,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2570,7 +2536,7 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2584,7 +2550,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2598,7 +2564,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2612,7 +2578,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2626,7 +2592,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2640,7 +2606,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\c_packaging\package_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6F2F2-40A3-4EAF-9B20-228C44071CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB3D69-31AB-4B3E-821A-17A1FD13D0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,9 +387,6 @@
     <t>NIFTY 50 FUTURES TR INDEX</t>
   </si>
   <si>
-    <t>NIFTY ALPHA LOWVOL</t>
-  </si>
-  <si>
     <t>NIFTY CONSR DURBL</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>NIFTY100 LIQ 15</t>
   </si>
   <si>
-    <t>NIFTY100 LOWVOL 30</t>
-  </si>
-  <si>
     <t>NIFTY100 QUALTY30</t>
   </si>
   <si>
@@ -490,6 +484,12 @@
   </si>
   <si>
     <t>NON OPEN SOURCE</t>
+  </si>
+  <si>
+    <t>NIFTY ALPHALOWVOL</t>
+  </si>
+  <si>
+    <t>NIFTY100 LOWVOL30</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1010,7 +1010,7 @@
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1024,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1108,7 +1108,7 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1136,7 +1136,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1185,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1269,7 +1269,7 @@
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1339,7 +1339,7 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1395,7 +1395,7 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1486,7 +1486,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1528,7 +1528,7 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1570,7 +1570,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1654,7 +1654,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1668,7 +1668,7 @@
         <v>1000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1682,7 +1682,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1780,7 +1780,7 @@
         <v>1000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1794,7 +1794,7 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1808,7 +1808,7 @@
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1864,7 +1864,7 @@
         <v>1500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1892,7 +1892,7 @@
         <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1934,7 +1934,7 @@
         <v>1000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2032,7 +2032,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,7 +2053,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2067,7 +2067,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2137,7 +2137,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,7 +2249,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2277,7 +2277,7 @@
         <v>1000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2305,7 +2305,7 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2417,7 +2417,7 @@
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
         <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2459,7 +2459,7 @@
         <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2494,7 @@
         <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2508,7 +2508,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2522,7 +2522,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2550,7 +2550,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2564,7 +2564,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2578,7 +2578,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2592,7 +2592,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2606,7 +2606,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\c_packaging\package_BharatFinTrack\BharatFinTrack\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB3D69-31AB-4B3E-821A-17A1FD13D0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79858A0-29AA-4BF5-ABBA-1DF1DE882FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>NIFTY100 LOWVOL30</t>
+  </si>
+  <si>
+    <t>NIFTY TOP 15 EQUAL WEIGHT</t>
+  </si>
+  <si>
+    <t>NIFTY TOP 20 EQUAL WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +517,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -568,6 +580,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2029,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D7280-DA99-43BB-B8CC-2B757AFDF5E9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2407,62 +2422,94 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
+      <c r="A27" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B27" s="4">
-        <v>39356</v>
+        <v>38778</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>117</v>
+      <c r="D27" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
+      <c r="A28" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B28" s="4">
-        <v>39814</v>
+        <v>38778</v>
       </c>
       <c r="C28">
         <v>1000</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>121</v>
+      <c r="D28" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4">
-        <v>39814</v>
+        <v>39356</v>
       </c>
       <c r="C29">
         <v>1000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4">
+        <v>39814</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
+        <v>39814</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B32" s="4">
         <v>40087</v>
       </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
+    <sortCondition ref="B2:B32"/>
+    <sortCondition ref="A2:A32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79858A0-29AA-4BF5-ABBA-1DF1DE882FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B27D58-F451-4D47-A402-0F006D8853AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>NIFTY TOP 20 EQUAL WEIGHT</t>
+  </si>
+  <si>
+    <t>NIFTY INDIA NEW AGE CONSUMPTION</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D5EDC-7427-4A89-B90E-E56187B74B61}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B16" s="3">
         <v>38443</v>
@@ -1711,12 +1714,12 @@
         <v>1000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3">
         <v>38443</v>
@@ -1725,12 +1728,12 @@
         <v>1000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>38443</v>
@@ -1739,12 +1742,12 @@
         <v>1000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>38443</v>
@@ -1753,12 +1756,12 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>38443</v>
@@ -1767,12 +1770,12 @@
         <v>1000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3">
         <v>38443</v>
@@ -1781,12 +1784,12 @@
         <v>1000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
         <v>38443</v>
@@ -1795,12 +1798,12 @@
         <v>1000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3">
         <v>38443</v>
@@ -1809,40 +1812,40 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3">
-        <v>38719</v>
+        <v>38443</v>
       </c>
       <c r="C24">
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
-        <v>39080</v>
+        <v>38719</v>
       </c>
       <c r="C25">
         <v>1000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>39080</v>
@@ -1851,54 +1854,54 @@
         <v>1000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>39814</v>
+        <v>39080</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3">
         <v>39814</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>39814</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>39814</v>
@@ -1907,26 +1910,26 @@
         <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3">
-        <v>40634</v>
+        <v>39814</v>
       </c>
       <c r="C31">
         <v>1000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>40634</v>
@@ -1935,68 +1938,68 @@
         <v>1000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>41640</v>
+        <v>40634</v>
       </c>
       <c r="C33">
         <v>1000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>42705</v>
+        <v>41640</v>
       </c>
       <c r="C34">
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
-        <v>42737</v>
+        <v>42705</v>
       </c>
       <c r="C35">
         <v>1000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3">
-        <v>43192</v>
+        <v>42737</v>
       </c>
       <c r="C36">
         <v>1000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B37" s="3">
         <v>43192</v>
@@ -2005,38 +2008,56 @@
         <v>1000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>43556</v>
+        <v>43192</v>
       </c>
       <c r="C38">
         <v>1000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3">
         <v>43647</v>
       </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition ref="B2:B40"/>
+    <sortCondition ref="A2:A40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2046,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D7280-DA99-43BB-B8CC-2B757AFDF5E9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B27D58-F451-4D47-A402-0F006D8853AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152C676-89FC-4887-9B68-FF6C5AE97F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>NIFTY INDIA NEW AGE CONSUMPTION</t>
+  </si>
+  <si>
+    <t>NIFTY INDIA SELECT 5 CORPORATE GROUPS (MAATR)</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D5EDC-7427-4A89-B90E-E56187B74B61}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3">
         <v>38443</v>
@@ -1727,13 +1730,13 @@
       <c r="C17">
         <v>1000</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>102</v>
+      <c r="D17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3">
         <v>38443</v>
@@ -1742,12 +1745,12 @@
         <v>1000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3">
         <v>38443</v>
@@ -1756,12 +1759,12 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
         <v>38443</v>
@@ -1770,12 +1773,12 @@
         <v>1000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>38443</v>
@@ -1784,12 +1787,12 @@
         <v>1000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3">
         <v>38443</v>
@@ -1798,12 +1801,12 @@
         <v>1000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>38443</v>
@@ -1812,12 +1815,12 @@
         <v>1000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3">
         <v>38443</v>
@@ -1826,40 +1829,40 @@
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3">
-        <v>38719</v>
+        <v>38443</v>
       </c>
       <c r="C25">
         <v>1000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>39080</v>
+        <v>38719</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3">
         <v>39080</v>
@@ -1868,54 +1871,54 @@
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>39814</v>
+        <v>39080</v>
       </c>
       <c r="C28">
         <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3">
         <v>39814</v>
       </c>
       <c r="C29">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3">
         <v>39814</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3">
         <v>39814</v>
@@ -1924,26 +1927,26 @@
         <v>1000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>40634</v>
+        <v>39814</v>
       </c>
       <c r="C32">
         <v>1000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>40634</v>
@@ -1952,68 +1955,68 @@
         <v>1000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>41640</v>
+        <v>40634</v>
       </c>
       <c r="C34">
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>42705</v>
+        <v>41640</v>
       </c>
       <c r="C35">
         <v>1000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3">
-        <v>42737</v>
+        <v>42705</v>
       </c>
       <c r="C36">
         <v>1000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3">
-        <v>43192</v>
+        <v>42737</v>
       </c>
       <c r="C37">
         <v>1000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3">
         <v>43192</v>
@@ -2022,41 +2025,55 @@
         <v>1000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>43556</v>
+        <v>43192</v>
       </c>
       <c r="C39">
         <v>1000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3">
         <v>43647</v>
       </c>
-      <c r="C40">
-        <v>1000</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition ref="B2:B40"/>
-    <sortCondition ref="A2:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152C676-89FC-4887-9B68-FF6C5AE97F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C761D-92DA-4126-9401-9483DBB17923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="156">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -450,9 +450,6 @@
     <t>NIFTY SMLCAP 100</t>
   </si>
   <si>
-    <t>NIFTY SMALLCAP250 QUALITY 50 INDEX</t>
-  </si>
-  <si>
     <t>NIFTY TOTAL MKT</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
   </si>
   <si>
     <t>NIFTY INDIA SELECT 5 CORPORATE GROUPS (MAATR)</t>
+  </si>
+  <si>
+    <t>NIFTY INDIA RAILWAYS PSU</t>
+  </si>
+  <si>
+    <t>NIFTY SML250 Q50</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1157,7 +1160,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1483,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D5EDC-7427-4A89-B90E-E56187B74B61}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3">
         <v>38443</v>
@@ -1717,12 +1720,12 @@
         <v>1000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3">
         <v>38443</v>
@@ -1731,7 +1734,7 @@
         <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1829,7 +1832,7 @@
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1843,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1941,7 +1944,7 @@
         <v>1000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1983,7 +1986,7 @@
         <v>1000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2070,10 +2073,24 @@
         <v>83</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="B2:B41"/>
-    <sortCondition ref="A2:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition ref="B2:B42"/>
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2084,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D7280-DA99-43BB-B8CC-2B757AFDF5E9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,7 +2137,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2134,7 +2151,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2190,7 +2207,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2302,7 +2319,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2330,7 +2347,7 @@
         <v>1000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2358,7 +2375,7 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2461,7 +2478,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4">
         <v>38778</v>
@@ -2470,12 +2487,12 @@
         <v>1000</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="4">
         <v>38778</v>
@@ -2484,7 +2501,7 @@
         <v>1000</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2540,7 +2557,7 @@
         <v>1000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2610,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2607,7 +2624,7 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2635,7 +2652,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2649,7 +2666,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2663,7 +2680,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2677,7 +2694,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2691,7 +2708,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C761D-92DA-4126-9401-9483DBB17923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6017A-F307-44C7-8EEC-42B1F08C095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -505,6 +505,36 @@
   </si>
   <si>
     <t>NIFTY SML250 Q50</t>
+  </si>
+  <si>
+    <t>NIFTY500 QUALITY 50</t>
+  </si>
+  <si>
+    <t>NIFTY500 QLTY50</t>
+  </si>
+  <si>
+    <t>NIFTY500 LOW VOLATILITY 50</t>
+  </si>
+  <si>
+    <t>NIFTY500 LOWVOL50</t>
+  </si>
+  <si>
+    <t>NIFTY INDIA INTERNET</t>
+  </si>
+  <si>
+    <t>NIFTY CHEMICALS</t>
+  </si>
+  <si>
+    <t>NIFTY WAVES</t>
+  </si>
+  <si>
+    <t>NIFTY500 FLEXICAP QUALITY 30</t>
+  </si>
+  <si>
+    <t>NIFTY500 MULTIFACTOR MQVLV 50</t>
+  </si>
+  <si>
+    <t>NIFTY500 MQVLV50</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1368,7 +1398,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="B13" s="3">
         <v>38443</v>
@@ -1376,13 +1406,13 @@
       <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>116</v>
+      <c r="D13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3">
         <v>38443</v>
@@ -1390,13 +1420,13 @@
       <c r="C14">
         <v>1000</v>
       </c>
-      <c r="D14" t="s">
-        <v>78</v>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3">
         <v>38443</v>
@@ -1405,12 +1435,12 @@
         <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3">
         <v>38443</v>
@@ -1419,12 +1449,12 @@
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3">
         <v>38443</v>
@@ -1433,12 +1463,12 @@
         <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>38443</v>
@@ -1447,38 +1477,56 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3">
-        <v>38716</v>
+        <v>38443</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3">
+        <v>38716</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>39080</v>
       </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="B2:B21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1486,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D5EDC-7427-4A89-B90E-E56187B74B61}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1823,7 +1871,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="B24" s="3">
         <v>38443</v>
@@ -1832,12 +1880,12 @@
         <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3">
         <v>38443</v>
@@ -1846,40 +1894,40 @@
         <v>1000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3">
-        <v>38719</v>
+        <v>38443</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>39080</v>
+        <v>38719</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>39080</v>
@@ -1888,54 +1936,54 @@
         <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>39814</v>
+        <v>39080</v>
       </c>
       <c r="C29">
         <v>1000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3">
         <v>39814</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3">
         <v>39814</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3">
         <v>39814</v>
@@ -1944,26 +1992,26 @@
         <v>1000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3">
-        <v>40634</v>
+        <v>39814</v>
       </c>
       <c r="C33">
         <v>1000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>40634</v>
@@ -1972,68 +2020,68 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3">
-        <v>41640</v>
+        <v>40634</v>
       </c>
       <c r="C35">
         <v>1000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>42705</v>
+        <v>41640</v>
       </c>
       <c r="C36">
         <v>1000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3">
-        <v>42737</v>
+        <v>42705</v>
       </c>
       <c r="C37">
         <v>1000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3">
-        <v>43192</v>
+        <v>42737</v>
       </c>
       <c r="C38">
         <v>1000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3">
         <v>43192</v>
@@ -2042,55 +2090,83 @@
         <v>1000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>43556</v>
+        <v>43192</v>
       </c>
       <c r="C40">
         <v>1000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C41">
         <v>1000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43647</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>44287</v>
       </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
-    <sortCondition ref="B2:B42"/>
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+    <sortCondition ref="B2:B44"/>
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2099,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D7280-DA99-43BB-B8CC-2B757AFDF5E9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2422,148 +2498,204 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="4">
+        <v>38443</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="4">
-        <v>38443</v>
-      </c>
-      <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B24" s="4">
+        <v>38443</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="4">
-        <v>38443</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B25" s="4">
+        <v>38443</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="4">
-        <v>38443</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B26" s="4">
-        <v>38778</v>
+        <v>38443</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>103</v>
+      <c r="D26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>150</v>
+      <c r="A27" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B27" s="4">
-        <v>38778</v>
+        <v>38443</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>150</v>
+      <c r="D27" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>151</v>
+      <c r="A28" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="4">
-        <v>38778</v>
+        <v>38443</v>
       </c>
       <c r="C28">
         <v>1000</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>151</v>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4">
-        <v>39356</v>
+        <v>38778</v>
       </c>
       <c r="C29">
         <v>1000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B30" s="4">
-        <v>39814</v>
+        <v>38778</v>
       </c>
       <c r="C30">
         <v>1000</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>121</v>
+      <c r="D30" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
+      <c r="A31" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B31" s="4">
-        <v>39814</v>
+        <v>38778</v>
       </c>
       <c r="C31">
         <v>1000</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
+      <c r="D31" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4">
+        <v>39356</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4">
+        <v>39814</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4">
+        <v>39814</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B35" s="4">
         <v>40087</v>
       </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="4">
+        <v>40087</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
-    <sortCondition ref="B2:B32"/>
-    <sortCondition ref="A2:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="B2:B36"/>
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2574,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E6A19C-CCEA-4D9C-96EA-3039CDDFFAD1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BharatFinTrack/data/equity_indices.xlsx
+++ b/BharatFinTrack/data/equity_indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package\pypi_BharatFinTrack\BharatFinTrack\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpal22\Desktop\code\pypi_package_own\pypi_BharatFinTrack\BharatFinTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6017A-F307-44C7-8EEC-42B1F08C095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD6430-D250-4D87-8B1C-E5BE8798F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-5505" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="broad" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>NIFTY 50</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>NIFTY500 MQVLV50</t>
+  </si>
+  <si>
+    <t>NIFTY500 HEALTHCARE</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,36 +1499,50 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B20" s="3">
-        <v>38716</v>
+        <v>38443</v>
       </c>
       <c r="C20">
         <v>1000</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3">
+        <v>38716</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>39080</v>
       </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
-    <sortCondition ref="B2:B21"/>
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="B2:B22"/>
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1537,7 +1554,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2706,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E6A19C-CCEA-4D9C-96EA-3039CDDFFAD1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
